--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.15/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.15/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="889">
   <si>
     <t>anchor score</t>
   </si>
@@ -292,490 +292,490 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>recent</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>mis</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>recent</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>mis</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>real</t>
   </si>
   <si>
     <t>stay</t>
@@ -3046,10 +3046,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3107,7 +3107,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03251690189366949</v>
+        <v>0.03303433508807975</v>
       </c>
       <c r="C3">
         <v>232</v>
@@ -3128,16 +3128,16 @@
         <v>60</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K3">
-        <v>0.005986318007969887</v>
+        <v>0.008840623094821564</v>
       </c>
       <c r="L3">
-        <v>105</v>
+        <v>229</v>
       </c>
       <c r="M3">
-        <v>105</v>
+        <v>229</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>203</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3157,7 +3157,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02141148498498217</v>
+        <v>0.02175220050299416</v>
       </c>
       <c r="C4">
         <v>228</v>
@@ -3178,28 +3178,28 @@
         <v>287</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>90</v>
+        <v>253</v>
       </c>
       <c r="K4">
-        <v>0.004459181742955825</v>
+        <v>0.007684014680838092</v>
       </c>
       <c r="L4">
-        <v>304</v>
+        <v>173</v>
       </c>
       <c r="M4">
-        <v>311</v>
+        <v>173</v>
       </c>
       <c r="N4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3207,7 +3207,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01333206651624948</v>
+        <v>0.01354421630186408</v>
       </c>
       <c r="C5">
         <v>39</v>
@@ -3228,16 +3228,16 @@
         <v>36</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K5">
-        <v>0.004410649652694023</v>
+        <v>0.005986318007969887</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>173</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3257,7 +3257,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01188628160506862</v>
+        <v>0.01207542498289356</v>
       </c>
       <c r="C6">
         <v>31</v>
@@ -3278,28 +3278,28 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="K6">
-        <v>0.004172056895836042</v>
+        <v>0.004459181742955825</v>
       </c>
       <c r="L6">
-        <v>51</v>
+        <v>304</v>
       </c>
       <c r="M6">
-        <v>51</v>
+        <v>311</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3307,7 +3307,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01067419598826824</v>
+        <v>0.0108440517557713</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -3328,28 +3328,28 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="K7">
-        <v>0.004147971445977835</v>
+        <v>0.004410649652694023</v>
       </c>
       <c r="L7">
-        <v>555</v>
+        <v>57</v>
       </c>
       <c r="M7">
-        <v>585</v>
+        <v>57</v>
       </c>
       <c r="N7">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>2522</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3357,7 +3357,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.010238329121311</v>
+        <v>0.01040124905015253</v>
       </c>
       <c r="C8">
         <v>23</v>
@@ -3378,28 +3378,28 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="K8">
-        <v>0.004140455504907812</v>
+        <v>0.004172056895836042</v>
       </c>
       <c r="L8">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="M8">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="N8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>347</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3407,7 +3407,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.010238329121311</v>
+        <v>0.01040124905015253</v>
       </c>
       <c r="C9">
         <v>23</v>
@@ -3428,28 +3428,28 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K9">
-        <v>0.0038260161029537</v>
+        <v>0.004147971445977835</v>
       </c>
       <c r="L9">
-        <v>285</v>
+        <v>555</v>
       </c>
       <c r="M9">
-        <v>294</v>
+        <v>585</v>
       </c>
       <c r="N9">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O9">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>600</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3457,7 +3457,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.009547291133969337</v>
+        <v>0.009699214750972232</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -3478,16 +3478,16 @@
         <v>31</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K10">
-        <v>0.003789506535107418</v>
+        <v>0.004140455504907812</v>
       </c>
       <c r="L10">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="M10">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N10">
         <v>0.99</v>
@@ -3499,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3507,7 +3507,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.009547291133969337</v>
+        <v>0.009699214750972232</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -3528,16 +3528,16 @@
         <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K11">
-        <v>0.003652587195675209</v>
+        <v>0.0038260161029537</v>
       </c>
       <c r="L11">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="M11">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="N11">
         <v>0.97</v>
@@ -3549,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>652</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3557,7 +3557,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.009057355640422459</v>
+        <v>0.009201483038452529</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -3578,16 +3578,16 @@
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K12">
-        <v>0.003606958213149247</v>
+        <v>0.003789506535107418</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M12">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="N12">
         <v>0.99</v>
@@ -3599,7 +3599,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3607,7 +3607,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008802167505634853</v>
+        <v>0.008942234159741946</v>
       </c>
       <c r="C13">
         <v>17</v>
@@ -3628,28 +3628,28 @@
         <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>257</v>
+        <v>91</v>
       </c>
       <c r="K13">
-        <v>0.003601280361094731</v>
+        <v>0.003652587195675209</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>652</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3657,7 +3657,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008802167505634853</v>
+        <v>0.008942234159741946</v>
       </c>
       <c r="C14">
         <v>17</v>
@@ -3678,28 +3678,28 @@
         <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="K14">
-        <v>0.003553579177358202</v>
+        <v>0.003606958213149247</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3707,7 +3707,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008802167505634853</v>
+        <v>0.008942234159741946</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -3728,28 +3728,28 @@
         <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>88</v>
+        <v>257</v>
       </c>
       <c r="K15">
-        <v>0.00329182856561572</v>
+        <v>0.003601280361094731</v>
       </c>
       <c r="L15">
-        <v>360</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>380</v>
+        <v>38</v>
       </c>
       <c r="N15">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1763</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3757,7 +3757,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.008539356790614596</v>
+        <v>0.008675241404617041</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -3778,16 +3778,16 @@
         <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K16">
-        <v>0.003252714766627557</v>
+        <v>0.003553579177358202</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3807,7 +3807,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.008268196659343386</v>
+        <v>0.008399766371102711</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -3828,28 +3828,28 @@
         <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>260</v>
+        <v>88</v>
       </c>
       <c r="K17">
-        <v>0.003035617280756213</v>
+        <v>0.00329182856561572</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>360</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>380</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>89</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3857,7 +3857,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.008268196659343386</v>
+        <v>0.008399766371102711</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K18">
-        <v>0.00297887176725903</v>
+        <v>0.003252714766627557</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3907,7 +3907,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00798783685347533</v>
+        <v>0.008114945270908124</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -3928,28 +3928,28 @@
         <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="K19">
-        <v>0.002896923314303855</v>
+        <v>0.003035617280756213</v>
       </c>
       <c r="L19">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3957,7 +3957,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007697272192010633</v>
+        <v>0.007819756927843745</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -3978,16 +3978,16 @@
         <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K20">
-        <v>0.002862007419079714</v>
+        <v>0.00297887176725903</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4007,7 +4007,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007697272192010633</v>
+        <v>0.007819756927843745</v>
       </c>
       <c r="C21">
         <v>13</v>
@@ -4028,28 +4028,28 @@
         <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="K21">
-        <v>0.002677162800150359</v>
+        <v>0.002896923314303855</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4057,7 +4057,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007697272192010633</v>
+        <v>0.007819756927843745</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -4078,16 +4078,16 @@
         <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K22">
-        <v>0.002612643371961835</v>
+        <v>0.002862007419079714</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4107,7 +4107,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007697272192010633</v>
+        <v>0.007819756927843745</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -4128,16 +4128,16 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K23">
-        <v>0.002612643371961835</v>
+        <v>0.002677162800150359</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4157,7 +4157,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007395299912651393</v>
+        <v>0.007512979440360954</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K24">
         <v>0.002612643371961835</v>
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4207,7 +4207,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007080460606360524</v>
+        <v>0.00719313017621762</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -4228,7 +4228,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K25">
         <v>0.002612643371961835</v>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4257,7 +4257,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007080460606360524</v>
+        <v>0.00719313017621762</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -4278,28 +4278,28 @@
         <v>4</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="K26">
-        <v>0.002593391256460897</v>
+        <v>0.002612643371961835</v>
       </c>
       <c r="L26">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>434</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4307,7 +4307,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.007080460606360524</v>
+        <v>0.00719313017621762</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4328,28 +4328,28 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="K27">
-        <v>0.002575114165468316</v>
+        <v>0.002612643371961835</v>
       </c>
       <c r="L27">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4357,7 +4357,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.007080460606360524</v>
+        <v>0.00719313017621762</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -4378,28 +4378,28 @@
         <v>5</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="K28">
-        <v>0.002548145298002561</v>
+        <v>0.002593391256460897</v>
       </c>
       <c r="L28">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="M28">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="N28">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O28">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>92</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4407,7 +4407,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006750954302791922</v>
+        <v>0.006858380522597057</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -4428,28 +4428,28 @@
         <v>9</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K29">
+        <v>0.002575114165468316</v>
+      </c>
+      <c r="L29">
+        <v>128</v>
+      </c>
+      <c r="M29">
         <v>132</v>
       </c>
-      <c r="K29">
-        <v>0.002536115077213821</v>
-      </c>
-      <c r="L29">
-        <v>152</v>
-      </c>
-      <c r="M29">
-        <v>158</v>
-      </c>
       <c r="N29">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O29">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>3043</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4457,7 +4457,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006750954302791922</v>
+        <v>0.006858380522597057</v>
       </c>
       <c r="C30">
         <v>10</v>
@@ -4478,28 +4478,28 @@
         <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>268</v>
+        <v>152</v>
       </c>
       <c r="K30">
-        <v>0.002478571130742568</v>
+        <v>0.002548145298002561</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4507,7 +4507,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006404517592960947</v>
+        <v>0.006506431053462781</v>
       </c>
       <c r="C31">
         <v>9</v>
@@ -4528,28 +4528,28 @@
         <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="K31">
-        <v>0.002458646604545853</v>
+        <v>0.002536115077213821</v>
       </c>
       <c r="L31">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="M31">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4557,7 +4557,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006404517592960947</v>
+        <v>0.006506431053462781</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -4578,28 +4578,28 @@
         <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="K32">
-        <v>0.002428432441826464</v>
+        <v>0.002478571130742568</v>
       </c>
       <c r="L32">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="N32">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4607,7 +4607,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006404517592960947</v>
+        <v>0.006506431053462781</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -4628,28 +4628,28 @@
         <v>2</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K33">
-        <v>0.002425270294357131</v>
+        <v>0.002458646604545853</v>
       </c>
       <c r="L33">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="M33">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>278</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4657,7 +4657,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006038237093614974</v>
+        <v>0.00613432202563502</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -4678,28 +4678,28 @@
         <v>22</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="K34">
-        <v>0.002392064442228729</v>
+        <v>0.002428432441826464</v>
       </c>
       <c r="L34">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="M34">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4707,7 +4707,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.006038237093614974</v>
+        <v>0.00613432202563502</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -4728,28 +4728,28 @@
         <v>11</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="K35">
-        <v>0.002336819272268372</v>
+        <v>0.002425270294357131</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>56</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4757,7 +4757,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006038237093614974</v>
+        <v>0.00613432202563502</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -4778,28 +4778,28 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>130</v>
+        <v>269</v>
       </c>
       <c r="K36">
-        <v>0.002326397210575821</v>
+        <v>0.002336819272268372</v>
       </c>
       <c r="L36">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="N36">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>208</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4807,7 +4807,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006038237093614974</v>
+        <v>0.00613432202563502</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -4828,28 +4828,28 @@
         <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="K37">
-        <v>0.002262615531147985</v>
+        <v>0.002326397210575821</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>86</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -4857,7 +4857,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00564825360610422</v>
+        <v>0.00573813283001684</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -4878,7 +4878,7 @@
         <v>4</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K38">
         <v>0.002262615531147985</v>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4907,7 +4907,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.00564825360610422</v>
+        <v>0.00573813283001684</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -4928,28 +4928,28 @@
         <v>3</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>139</v>
+        <v>271</v>
       </c>
       <c r="K39">
-        <v>0.002251210577135708</v>
+        <v>0.002262615531147985</v>
       </c>
       <c r="L39">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N39">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4957,7 +4957,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005229266717144083</v>
+        <v>0.005312478709194343</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -4978,28 +4978,28 @@
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>272</v>
+        <v>137</v>
       </c>
       <c r="K40">
-        <v>0.002185894272909665</v>
+        <v>0.002251210577135708</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5007,7 +5007,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005229266717144083</v>
+        <v>0.005312478709194343</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -5028,16 +5028,16 @@
         <v>3</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K41">
-        <v>0.002106380426914015</v>
+        <v>0.002185894272909665</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5057,7 +5057,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005229266717144083</v>
+        <v>0.005312478709194343</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -5078,7 +5078,7 @@
         <v>74</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K42">
         <v>0.002106380426914015</v>
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5107,7 +5107,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005229266717144083</v>
+        <v>0.005312478709194343</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -5128,7 +5128,7 @@
         <v>3</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K43">
         <v>0.002106380426914015</v>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5157,7 +5157,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005229266717144083</v>
+        <v>0.005312478709194343</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -5178,7 +5178,7 @@
         <v>2</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K44">
         <v>0.002106380426914015</v>
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>115</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5207,7 +5207,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005229266717144083</v>
+        <v>0.005312478709194343</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5228,28 +5228,28 @@
         <v>1</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="K45">
-        <v>0.002024136125804343</v>
+        <v>0.002106380426914015</v>
       </c>
       <c r="L45">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="N45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5257,7 +5257,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005229266717144083</v>
+        <v>0.005312478709194343</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5278,28 +5278,28 @@
         <v>7</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>277</v>
+        <v>143</v>
       </c>
       <c r="K46">
-        <v>0.002023744853837475</v>
+        <v>0.002024136125804343</v>
       </c>
       <c r="L46">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="M46">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>45</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5307,7 +5307,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -5328,7 +5328,7 @@
         <v>21</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K47">
         <v>0.002023744853837475</v>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5357,7 +5357,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -5378,7 +5378,7 @@
         <v>4</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K48">
         <v>0.002023744853837475</v>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5407,7 +5407,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -5428,7 +5428,7 @@
         <v>25</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K49">
         <v>0.002023744853837475</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5457,7 +5457,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -5478,7 +5478,7 @@
         <v>144</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K50">
         <v>0.002023744853837475</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5507,7 +5507,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -5528,7 +5528,7 @@
         <v>35</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K51">
         <v>0.002023744853837475</v>
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -5557,7 +5557,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -5578,28 +5578,28 @@
         <v>5</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="K52">
-        <v>0.00200904938574292</v>
+        <v>0.002023744853837475</v>
       </c>
       <c r="L52">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="M52">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="N52">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -5607,7 +5607,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -5628,7 +5628,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K53">
         <v>0.001961150149679308</v>
@@ -5657,7 +5657,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004773645566984668</v>
+        <v>0.004849607375486116</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -5707,7 +5707,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -5757,7 +5757,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -5807,7 +5807,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -5857,7 +5857,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -5907,7 +5907,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -5957,7 +5957,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004269678395307298</v>
+        <v>0.004337620702308521</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -6007,7 +6007,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -6028,7 +6028,7 @@
         <v>3</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K61">
         <v>0.001897972760291059</v>
@@ -6057,7 +6057,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -6107,7 +6107,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -6157,7 +6157,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -6207,7 +6207,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -6257,7 +6257,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -6307,7 +6307,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6357,7 +6357,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6407,7 +6407,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003697649956325696</v>
+        <v>0.003756489720180477</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -6457,7 +6457,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003524113829789368</v>
+        <v>0.00358019215737347</v>
       </c>
       <c r="C70">
         <v>30</v>
@@ -6507,7 +6507,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -6557,7 +6557,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -6607,7 +6607,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -6657,7 +6657,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -6707,7 +6707,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -6757,7 +6757,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -6807,7 +6807,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -6828,7 +6828,7 @@
         <v>4</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K77">
         <v>0.001702865104657602</v>
@@ -6857,7 +6857,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -6907,7 +6907,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -6957,7 +6957,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7007,7 +7007,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7057,7 +7057,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003019118546807487</v>
+        <v>0.00306716101281751</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7107,7 +7107,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.00283531288114657</v>
+        <v>0.002880430494320224</v>
       </c>
       <c r="C83">
         <v>20</v>
@@ -7128,7 +7128,7 @@
         <v>1763</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K83">
         <v>0.001609499220133881</v>
@@ -7157,7 +7157,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002484538049571162</v>
+        <v>0.002524073872012898</v>
       </c>
       <c r="C84">
         <v>9</v>
@@ -7207,7 +7207,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002472677262754073</v>
+        <v>0.002512024347510065</v>
       </c>
       <c r="C85">
         <v>7</v>
@@ -7257,7 +7257,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002270084185751491</v>
+        <v>0.002306207458369978</v>
       </c>
       <c r="C86">
         <v>7</v>
@@ -7307,25 +7307,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002237179327524411</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C87">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>313</v>
@@ -7357,7 +7357,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>314</v>
@@ -7407,7 +7407,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7425,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>315</v>
@@ -7457,7 +7457,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>316</v>
@@ -7507,7 +7507,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>317</v>
@@ -7557,7 +7557,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>318</v>
@@ -7607,7 +7607,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>319</v>
@@ -7657,7 +7657,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7675,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>320</v>
@@ -7707,7 +7707,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7725,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>321</v>
@@ -7757,7 +7757,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7775,10 +7775,10 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K96">
         <v>0.001535789617594231</v>
@@ -7807,7 +7807,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7825,10 +7825,10 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K97">
         <v>0.001501249359155288</v>
@@ -7857,7 +7857,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7875,10 +7875,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K98">
         <v>0.001501000982942664</v>
@@ -7907,7 +7907,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7925,10 +7925,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K99">
         <v>0.001445740536849307</v>
@@ -7957,7 +7957,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -7975,10 +7975,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K100">
         <v>0.001431280380600918</v>
@@ -8007,7 +8007,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>322</v>
@@ -8057,7 +8057,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>323</v>
@@ -8107,7 +8107,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8125,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>324</v>
@@ -8157,7 +8157,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8175,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>325</v>
@@ -8207,7 +8207,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>326</v>
@@ -8257,7 +8257,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8275,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>327</v>
@@ -8307,7 +8307,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>328</v>
@@ -8357,7 +8357,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>329</v>
@@ -8407,7 +8407,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>330</v>
@@ -8457,7 +8457,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8475,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>331</v>
@@ -8507,7 +8507,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>332</v>
@@ -8557,7 +8557,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8575,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>55</v>
+        <v>372</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>333</v>
@@ -8607,7 +8607,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>372</v>
+        <v>6</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>334</v>
@@ -8657,7 +8657,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8707,7 +8707,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8725,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>336</v>
@@ -8757,7 +8757,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>337</v>
@@ -8807,7 +8807,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>338</v>
@@ -8857,7 +8857,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>339</v>
@@ -8907,7 +8907,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -8925,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>340</v>
@@ -8957,7 +8957,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>341</v>
@@ -9007,7 +9007,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9025,10 +9025,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K121">
         <v>0.001343146055767945</v>
@@ -9057,7 +9057,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002134839197653649</v>
+        <v>0.00216881035115426</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>251</v>
+        <v>10</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>342</v>
@@ -9107,25 +9107,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002134839197653649</v>
+        <v>0.002130324188421325</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>343</v>
@@ -9157,25 +9157,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.00209695586279875</v>
+        <v>0.002126171729637019</v>
       </c>
       <c r="C124">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D124">
+        <v>210</v>
+      </c>
+      <c r="E124">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F124">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124">
         <v>208</v>
-      </c>
-      <c r="E124">
-        <v>0.95</v>
-      </c>
-      <c r="F124">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124">
-        <v>87</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>344</v>
@@ -9207,25 +9207,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002092868446038377</v>
+        <v>0.0018705926782759</v>
       </c>
       <c r="C125">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D125">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="E125">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F125">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>208</v>
+        <v>3043</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>345</v>
@@ -9257,25 +9257,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001933562514390775</v>
+        <v>0.001745724761613256</v>
       </c>
       <c r="C126">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D126">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="E126">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F126">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>54</v>
+        <v>278</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>346</v>
@@ -9307,25 +9307,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001841292656272127</v>
+        <v>0.001695350996146716</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D127">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E127">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F127">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>3043</v>
+        <v>434</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>347</v>
@@ -9357,25 +9357,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001718380607794081</v>
+        <v>0.001689965900574667</v>
       </c>
       <c r="C128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D128">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E128">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F128">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>348</v>
@@ -9407,25 +9407,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001668795871630244</v>
+        <v>0.001576028205067938</v>
       </c>
       <c r="C129">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D129">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="E129">
-        <v>0.97</v>
+        <v>0.08</v>
       </c>
       <c r="F129">
-        <v>0.03000000000000003</v>
+        <v>0.92</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>434</v>
+        <v>43</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>349</v>
@@ -9457,13 +9457,13 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001663495125484228</v>
+        <v>0.001528344614887942</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D130">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E130">
         <v>0.97</v>
@@ -9475,7 +9475,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>350</v>
@@ -9507,25 +9507,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001551342092680489</v>
+        <v>0.00148606214582459</v>
       </c>
       <c r="C131">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D131">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="E131">
-        <v>0.08</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F131">
-        <v>0.92</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>351</v>
@@ -9557,13 +9557,13 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001504405394251818</v>
+        <v>0.001469763046017314</v>
       </c>
       <c r="C132">
         <v>3</v>
       </c>
       <c r="D132">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E132">
         <v>0.97</v>
@@ -9575,7 +9575,7 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>352</v>
@@ -9607,25 +9607,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001462785216497696</v>
+        <v>0.001465818561506536</v>
       </c>
       <c r="C133">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D133">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E133">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F133">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>112</v>
+        <v>552</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>353</v>
@@ -9657,25 +9657,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001446741417584377</v>
+        <v>0.001308473771743755</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="E134">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F134">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>12</v>
+        <v>347</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>354</v>
@@ -9707,25 +9707,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001442858717493212</v>
+        <v>0.001291091496958889</v>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D135">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E135">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F135">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>552</v>
+        <v>19</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>355</v>
@@ -9757,13 +9757,13 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001287978497305502</v>
+        <v>0.001273676652704485</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E136">
         <v>0.99</v>
@@ -9775,7 +9775,7 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>356</v>
@@ -9807,25 +9807,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001270868489722142</v>
+        <v>0.001254137426158517</v>
       </c>
       <c r="C137">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="E137">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F137">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>357</v>
@@ -9857,25 +9857,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001253726422821018</v>
+        <v>0.001252405334004388</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="E138">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F138">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>358</v>
@@ -9907,25 +9907,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001234493248883073</v>
+        <v>0.001245411673355109</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D139">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="E139">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F139">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>359</v>
@@ -9957,25 +9957,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001232788287348462</v>
+        <v>0.001227545820449306</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D140">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E140">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F140">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>89</v>
+        <v>279</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>360</v>
@@ -10007,13 +10007,13 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001225904171878789</v>
+        <v>0.001223173155196725</v>
       </c>
       <c r="C141">
         <v>5</v>
       </c>
       <c r="D141">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E141">
         <v>0.93</v>
@@ -10025,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>361</v>
@@ -10057,25 +10057,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001208318160698732</v>
+        <v>0.001217373978979966</v>
       </c>
       <c r="C142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E142">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F142">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>279</v>
+        <v>13</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>362</v>
@@ -10107,13 +10107,13 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001204013986673345</v>
+        <v>0.001211831106516859</v>
       </c>
       <c r="C143">
         <v>5</v>
       </c>
       <c r="D143">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E143">
         <v>0.93</v>
@@ -10125,7 +10125,7 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>21</v>
+        <v>795</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>363</v>
@@ -10157,25 +10157,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001198305645833378</v>
+        <v>0.001166497947783942</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E144">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F144">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>364</v>
@@ -10207,25 +10207,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001192849594134095</v>
+        <v>0.001138078155670723</v>
       </c>
       <c r="C145">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D145">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E145">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F145">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>795</v>
+        <v>27</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>365</v>
@@ -10257,25 +10257,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001148226511177589</v>
+        <v>0.001127916953018162</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D146">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="E146">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F146">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>73</v>
+        <v>262</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>366</v>
@@ -10307,25 +10307,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001120251872380713</v>
+        <v>0.001114844724447613</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E147">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F147">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>367</v>
@@ -10357,25 +10357,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001110249829691067</v>
+        <v>0.001092825312146341</v>
       </c>
       <c r="C148">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E148">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F148">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>262</v>
+        <v>1107</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>368</v>
@@ -10407,25 +10407,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001097382357927922</v>
+        <v>0.001073437583680454</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E149">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F149">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>369</v>
@@ -10457,13 +10457,13 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001075707846615747</v>
+        <v>0.001021283993711858</v>
       </c>
       <c r="C150">
         <v>2</v>
       </c>
       <c r="D150">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E150">
         <v>0.96</v>
@@ -10475,10 +10475,10 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>1107</v>
+        <v>90</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K150">
         <v>0.001304912350172446</v>
@@ -10507,28 +10507,28 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001056623797768225</v>
+        <v>0.001009637834278509</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E151">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F151">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K151">
         <v>0.001255221897457711</v>
@@ -10557,28 +10557,28 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.00100528711537732</v>
+        <v>0.001008839591969219</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D152">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E152">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F152">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K152">
         <v>0.001250785162328011</v>
@@ -10607,28 +10607,28 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0009938233755223311</v>
+        <v>0.0009871122880872457</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153">
+        <v>44</v>
+      </c>
+      <c r="E153">
+        <v>0.95</v>
+      </c>
+      <c r="F153">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="G153" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153">
         <v>53</v>
       </c>
-      <c r="E153">
-        <v>0.98</v>
-      </c>
-      <c r="F153">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G153" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153">
-        <v>6</v>
-      </c>
       <c r="J153" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K153">
         <v>0.001250785162328011</v>
@@ -10657,28 +10657,28 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0009930376364787161</v>
+        <v>0.0009129686542116949</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E154">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F154">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K154">
         <v>0.001218483808799617</v>
@@ -10707,13 +10707,13 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0009716506581466172</v>
+        <v>0.0009108721003856608</v>
       </c>
       <c r="C155">
         <v>2</v>
       </c>
       <c r="D155">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E155">
         <v>0.95</v>
@@ -10725,10 +10725,10 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K155">
         <v>0.001215069032037873</v>
@@ -10757,13 +10757,13 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0008986683728261115</v>
+        <v>0.0009041021035113019</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E156">
         <v>0.97</v>
@@ -10775,10 +10775,10 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K156">
         <v>0.001213657228269927</v>
@@ -10807,28 +10807,28 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0008966046583637443</v>
+        <v>0.0008897428257146754</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D157">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E157">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F157">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K157">
         <v>0.001194917860021276</v>
@@ -10857,13 +10857,13 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0008899407033122194</v>
+        <v>0.0008855843044687062</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E158">
         <v>0.97</v>
@@ -10875,10 +10875,10 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K158">
         <v>0.001175700089924907</v>
@@ -10907,25 +10907,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0008758063420141365</v>
+        <v>0.0008528913061213724</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E159">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F159">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>370</v>
@@ -10957,13 +10957,13 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0008717129577514484</v>
+        <v>0.0008339851483318722</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E160">
         <v>0.97</v>
@@ -10975,7 +10975,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>371</v>
@@ -11007,25 +11007,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0008395320460716562</v>
+        <v>0.0008339851483318722</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E161">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F161">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>372</v>
@@ -11057,13 +11057,13 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0008209220248198815</v>
+        <v>0.000822605980165132</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E162">
         <v>0.97</v>
@@ -11075,7 +11075,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>373</v>
@@ -11107,25 +11107,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0008209220248198815</v>
+        <v>0.000787667502472756</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E163">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F163">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>374</v>
@@ -11157,25 +11157,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0008097210942147132</v>
+        <v>0.0007859212063851785</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E164">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F164">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>375</v>
@@ -11207,13 +11207,13 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0007753298752479024</v>
+        <v>0.0007700279380299271</v>
       </c>
       <c r="C165">
         <v>2</v>
       </c>
       <c r="D165">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E165">
         <v>0.93</v>
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>376</v>
@@ -11257,25 +11257,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0007736109322631062</v>
+        <v>0.0007237979348878687</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D166">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E166">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F166">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>377</v>
@@ -11307,25 +11307,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0007579666080622552</v>
+        <v>0.0007133573166109035</v>
       </c>
       <c r="C167">
         <v>2</v>
       </c>
       <c r="D167">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E167">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F167">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>378</v>
@@ -11357,25 +11357,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0007124607284159357</v>
+        <v>0.0006979937926990602</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E168">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F168">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>379</v>
@@ -11407,25 +11407,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0007021836467275611</v>
+        <v>0.0006979937926990602</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E169">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F169">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>380</v>
@@ -11457,7 +11457,7 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0006870607693198449</v>
+        <v>0.0006979937926990602</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -11475,7 +11475,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>381</v>
@@ -11507,25 +11507,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0006870607693198449</v>
+        <v>0.0006826153332283086</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D171">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E171">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F171">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>382</v>
@@ -11557,13 +11557,13 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0006870607693198449</v>
+        <v>0.0006809126802415558</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E172">
         <v>0.95</v>
@@ -11575,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>383</v>
@@ -11607,25 +11607,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0006719231902962959</v>
+        <v>0.0006809126802415558</v>
       </c>
       <c r="C173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E173">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F173">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>384</v>
@@ -11657,25 +11657,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0006702472068087645</v>
+        <v>0.0006720206846342626</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E174">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F174">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>385</v>
@@ -11707,25 +11707,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0006702472068087645</v>
+        <v>0.000666323923818441</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D175">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E175">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F175">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>386</v>
@@ -11757,25 +11757,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0006614944909441843</v>
+        <v>0.0006629702637288812</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E176">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F176">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>387</v>
@@ -11807,25 +11807,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0006558869613218727</v>
+        <v>0.0006501336813747819</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E177">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F177">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>388</v>
@@ -11857,25 +11857,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0006525858312756294</v>
+        <v>0.0006241586022722786</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E178">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F178">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>389</v>
@@ -11907,25 +11907,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0006399503146852297</v>
+        <v>0.0006241586022722786</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E179">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F179">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>86</v>
+        <v>288</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>390</v>
@@ -11957,7 +11957,7 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0006143820961452057</v>
+        <v>0.0006241586022722786</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -11975,7 +11975,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>391</v>
@@ -12007,25 +12007,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0006143820961452057</v>
+        <v>0.0006036150614602061</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E181">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F181">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>288</v>
+        <v>164</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>392</v>
@@ -12057,25 +12057,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0006143820961452057</v>
+        <v>0.0005473580807426238</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D182">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E182">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="F182">
-        <v>0.06000000000000005</v>
+        <v>0.16</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>393</v>
@@ -12107,25 +12107,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0005941603390142197</v>
+        <v>0.0005315951789223325</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E183">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F183">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>164</v>
+        <v>531</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>394</v>
@@ -12157,25 +12157,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0005387845393212581</v>
+        <v>0.0005315951789223325</v>
       </c>
       <c r="C184">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E184">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="F184">
-        <v>0.16</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>395</v>
@@ -12207,7 +12207,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0005232685396595936</v>
+        <v>0.0005315951789223325</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12225,7 +12225,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>531</v>
+        <v>35</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>396</v>
@@ -12257,7 +12257,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0005232685396595936</v>
+        <v>0.0005315951789223325</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12275,7 +12275,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>397</v>
@@ -12307,25 +12307,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0005232685396595936</v>
+        <v>0.0005044197959846093</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E187">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F187">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>398</v>
@@ -12357,25 +12357,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0005232685396595936</v>
+        <v>0.0004751903832025133</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E188">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F188">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>399</v>
@@ -12407,13 +12407,13 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.000496518818239358</v>
+        <v>0.0004751903832025133</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E189">
         <v>0.92</v>
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>400</v>
@@ -12457,25 +12457,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0004677472402641759</v>
+        <v>0.0004436065643834572</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E190">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F190">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>401</v>
@@ -12507,25 +12507,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0004677472402641759</v>
+        <v>0.0004436065643834572</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E191">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F191">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>402</v>
@@ -12557,7 +12557,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0004366581344829225</v>
+        <v>0.0004436065643834572</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -12575,7 +12575,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>403</v>
@@ -12607,7 +12607,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0004366581344829225</v>
+        <v>0.0004436065643834572</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -12625,7 +12625,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>404</v>
@@ -12657,25 +12657,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0004366581344829225</v>
+        <v>0.0004093019571622787</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E194">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F194">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>405</v>
@@ -12707,25 +12707,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0004366581344829225</v>
+        <v>0.0003311445459451487</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E195">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F195">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>54</v>
+        <v>348</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>406</v>
@@ -12757,25 +12757,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0004028908573593567</v>
+        <v>0.0003306220609756951</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E196">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F196">
-        <v>0.09999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>407</v>
@@ -12807,25 +12807,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0003259576644849021</v>
+        <v>0.0003306220609756951</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E197">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F197">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>348</v>
+        <v>34</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>408</v>
@@ -12857,7 +12857,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0003254433634569765</v>
+        <v>0.0003306220609756951</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -12875,7 +12875,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>409</v>
@@ -12907,7 +12907,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0003254433634569765</v>
+        <v>0.0003306220609756951</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -12925,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>410</v>
@@ -12957,7 +12957,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0003254433634569765</v>
+        <v>0.0003306220609756951</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -12975,10 +12975,10 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K200">
         <v>0.001167346124152516</v>
@@ -13007,28 +13007,28 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0003254433634569765</v>
+        <v>0.0002924897138777226</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D201">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E201">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="F201">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>77</v>
+        <v>950</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K201">
         <v>0.001100029790131671</v>
@@ -13057,28 +13057,28 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0003254433634569765</v>
+        <v>0.0002850047058516573</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E202">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F202">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K202">
         <v>0.001052473826497426</v>
@@ -13107,28 +13107,28 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0002879083022470552</v>
+        <v>0.0002850047058516573</v>
       </c>
       <c r="C203">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E203">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="F203">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>950</v>
+        <v>43</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K203">
         <v>0.001040967593415071</v>
@@ -13157,7 +13157,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0002805405356185475</v>
+        <v>0.0002850047058516573</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13175,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>411</v>
@@ -13207,7 +13207,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0002805405356185475</v>
+        <v>0.0002850047058516573</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13225,7 +13225,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>412</v>
@@ -13257,25 +13257,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0002805405356185475</v>
+        <v>0.0002505998323728421</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E206">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F206">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>413</v>
@@ -13307,25 +13307,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0002805405356185475</v>
+        <v>0.0002341545539907549</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E207">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F207">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>414</v>
@@ -13357,25 +13357,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0002466745627575276</v>
+        <v>0.0002341545539907549</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E208">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F208">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>415</v>
@@ -13407,25 +13407,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0002304868749370037</v>
+        <v>0.0002068214601102507</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E209">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F209">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>416</v>
@@ -13457,25 +13457,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0002304868749370037</v>
+        <v>0.0002068214601102507</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E210">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F210">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>417</v>
@@ -13507,7 +13507,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0002035819128787989</v>
+        <v>0.0002068214601102507</v>
       </c>
       <c r="C211">
         <v>2</v>
@@ -13525,7 +13525,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>418</v>
@@ -13557,25 +13557,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0002035819128787989</v>
+        <v>0.000196947749489459</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D212">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E212">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="F212">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>419</v>
@@ -13607,25 +13607,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0002035819128787989</v>
+        <v>0.0001772008408350487</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E213">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F213">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>420</v>
@@ -13657,25 +13657,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0001938628590904688</v>
+        <v>0.0001772008408350487</v>
       </c>
       <c r="C214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E214">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F214">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>421</v>
@@ -13707,7 +13707,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0001744252560720744</v>
+        <v>0.0001772008408350487</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>422</v>
@@ -13757,7 +13757,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0001744252560720744</v>
+        <v>0.0001772008408350487</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -13775,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>423</v>
@@ -13807,7 +13807,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0001744252560720744</v>
+        <v>0.0001772008408350487</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -13825,7 +13825,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>424</v>
@@ -13857,7 +13857,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0001744252560720744</v>
+        <v>0.0001772008408350487</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -13875,7 +13875,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>425</v>
@@ -13907,7 +13907,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0001744252560720744</v>
+        <v>0.0001772008408350487</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -13925,7 +13925,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>426</v>
@@ -13957,7 +13957,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0001744252560720744</v>
+        <v>0.0001772008408350487</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -13975,7 +13975,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>427</v>
@@ -14007,25 +14007,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0001744252560720744</v>
+        <v>0.0001189103652221127</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D221">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E221">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F221">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>428</v>
@@ -14057,25 +14057,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0001744252560720744</v>
+        <v>0.0001137078361840301</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E222">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F222">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>429</v>
@@ -14107,25 +14107,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0001170478131240815</v>
+        <v>0.0001137078361840301</v>
       </c>
       <c r="C223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E223">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F223">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>430</v>
@@ -14157,7 +14157,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0001119267738817526</v>
+        <v>0.0001137078361840301</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14175,7 +14175,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>431</v>
@@ -14207,7 +14207,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0001119267738817526</v>
+        <v>0.0001137078361840301</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14225,7 +14225,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>432</v>
@@ -14257,7 +14257,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0001119267738817526</v>
+        <v>0.0001137078361840301</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14275,7 +14275,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>433</v>
@@ -14307,7 +14307,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0001119267738817526</v>
+        <v>0.0001137078361840301</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14325,7 +14325,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>434</v>
@@ -14357,7 +14357,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0001119267738817526</v>
+        <v>0.0001137078361840301</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14375,7 +14375,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>435</v>
@@ -14407,25 +14407,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0001119267738817526</v>
+        <v>0.0001131221872420519</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E229">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F229">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>436</v>
@@ -14457,25 +14457,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0001119267738817526</v>
+        <v>6.545295729800435E-05</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D230">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E230">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F230">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>437</v>
@@ -14507,25 +14507,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0001113502982499695</v>
+        <v>4.628222995413239E-05</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E231">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F231">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>438</v>
@@ -14557,13 +14557,13 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>6.442773512574015E-05</v>
+        <v>4.628222995413239E-05</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E232">
         <v>0.67</v>
@@ -14575,7 +14575,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>439</v>
@@ -14607,7 +14607,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>4.555728840390157E-05</v>
+        <v>4.628222995413239E-05</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>440</v>
@@ -14657,7 +14657,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>4.555728840390157E-05</v>
+        <v>4.628222995413239E-05</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14675,7 +14675,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>441</v>
@@ -14707,7 +14707,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>4.555728840390157E-05</v>
+        <v>4.628222995413239E-05</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -14725,7 +14725,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>442</v>
@@ -14757,25 +14757,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>4.555728840390157E-05</v>
+        <v>0</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E236">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F236">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>443</v>
@@ -14807,25 +14807,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>4.555728840390157E-05</v>
+        <v>0</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E237">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F237">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>444</v>
@@ -14875,7 +14875,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>445</v>
@@ -14925,7 +14925,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>446</v>
@@ -14975,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>447</v>
@@ -15025,7 +15025,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>448</v>
@@ -15060,10 +15060,10 @@
         <v>0</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D242">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E242">
         <v>0.5</v>
@@ -15075,7 +15075,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>449</v>
@@ -15125,7 +15125,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>450</v>
@@ -15160,10 +15160,10 @@
         <v>0</v>
       </c>
       <c r="C244">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E244">
         <v>0.5</v>
@@ -15175,7 +15175,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>285</v>
+        <v>98</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>451</v>
@@ -15225,7 +15225,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>452</v>
@@ -15275,7 +15275,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>453</v>
@@ -15303,30 +15303,6 @@
       </c>
     </row>
     <row r="247" spans="1:17">
-      <c r="A247" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B247">
-        <v>0</v>
-      </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-      <c r="D247">
-        <v>2</v>
-      </c>
-      <c r="E247">
-        <v>0.5</v>
-      </c>
-      <c r="F247">
-        <v>0.5</v>
-      </c>
-      <c r="G247" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247">
-        <v>27</v>
-      </c>
       <c r="J247" s="1" t="s">
         <v>454</v>
       </c>
@@ -15353,30 +15329,6 @@
       </c>
     </row>
     <row r="248" spans="1:17">
-      <c r="A248" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B248">
-        <v>0</v>
-      </c>
-      <c r="C248">
-        <v>1</v>
-      </c>
-      <c r="D248">
-        <v>2</v>
-      </c>
-      <c r="E248">
-        <v>0.5</v>
-      </c>
-      <c r="F248">
-        <v>0.5</v>
-      </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248">
-        <v>64</v>
-      </c>
       <c r="J248" s="1" t="s">
         <v>455</v>
       </c>
@@ -15924,7 +15876,7 @@
     </row>
     <row r="269" spans="10:17">
       <c r="J269" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K269">
         <v>0.0009413612082350253</v>
@@ -15950,7 +15902,7 @@
     </row>
     <row r="270" spans="10:17">
       <c r="J270" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K270">
         <v>0.0009189613283770275</v>
@@ -15976,7 +15928,7 @@
     </row>
     <row r="271" spans="10:17">
       <c r="J271" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K271">
         <v>0.0008615981639682218</v>
@@ -16002,7 +15954,7 @@
     </row>
     <row r="272" spans="10:17">
       <c r="J272" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K272">
         <v>0.0008615981639682218</v>
@@ -16028,7 +15980,7 @@
     </row>
     <row r="273" spans="10:17">
       <c r="J273" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K273">
         <v>0.0008615981639682218</v>
@@ -16054,7 +16006,7 @@
     </row>
     <row r="274" spans="10:17">
       <c r="J274" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K274">
         <v>0.0008416824786390241</v>
@@ -19044,7 +18996,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K389">
         <v>0.0008202570593464195</v>
@@ -19070,7 +19022,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K390">
         <v>0.0008202570593464195</v>
@@ -19096,7 +19048,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K391">
         <v>0.0007938720329769369</v>
@@ -19122,7 +19074,7 @@
     </row>
     <row r="392" spans="10:17">
       <c r="J392" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K392">
         <v>0.0007784207548215437</v>
@@ -19148,7 +19100,7 @@
     </row>
     <row r="393" spans="10:17">
       <c r="J393" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K393">
         <v>0.0007621087075573747</v>
@@ -19174,7 +19126,7 @@
     </row>
     <row r="394" spans="10:17">
       <c r="J394" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K394">
         <v>0.0006932070615596786</v>
@@ -19200,7 +19152,7 @@
     </row>
     <row r="395" spans="10:17">
       <c r="J395" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K395">
         <v>0.0006932070615596786</v>
@@ -19226,7 +19178,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K396">
         <v>0.0006932070615596786</v>
@@ -19252,7 +19204,7 @@
     </row>
     <row r="397" spans="10:17">
       <c r="J397" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K397">
         <v>0.000665642893888948</v>
@@ -19278,7 +19230,7 @@
     </row>
     <row r="398" spans="10:17">
       <c r="J398" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K398">
         <v>0.0006003749180187582</v>
@@ -27104,7 +27056,7 @@
     </row>
     <row r="699" spans="10:17">
       <c r="J699" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K699">
         <v>0.000567467341827786</v>
@@ -27130,7 +27082,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K700">
         <v>0.0005427648917323078</v>
@@ -27156,7 +27108,7 @@
     </row>
     <row r="701" spans="10:17">
       <c r="J701" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K701">
         <v>0.0005181295247487091</v>
@@ -27182,7 +27134,7 @@
     </row>
     <row r="702" spans="10:17">
       <c r="J702" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K702">
         <v>0.0005162930356395233</v>
@@ -27208,7 +27160,7 @@
     </row>
     <row r="703" spans="10:17">
       <c r="J703" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K703">
         <v>0.0005162930356395233</v>
@@ -27234,7 +27186,7 @@
     </row>
     <row r="704" spans="10:17">
       <c r="J704" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K704">
         <v>0.0005162930356395233</v>
@@ -27260,7 +27212,7 @@
     </row>
     <row r="705" spans="10:17">
       <c r="J705" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K705">
         <v>0.0005162930356395233</v>
@@ -27286,7 +27238,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K706">
         <v>0.0005011473376039359</v>
@@ -27312,7 +27264,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K707">
         <v>0.0004950950676126486</v>
@@ -27338,7 +27290,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K708">
         <v>0.0004706806041175126</v>
@@ -27364,7 +27316,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K709">
         <v>0.0004245291757853815</v>
@@ -27390,7 +27342,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K710">
         <v>0.0004245291757853815</v>
@@ -27442,7 +27394,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K712">
         <v>0.0003778692234779513</v>
@@ -27468,7 +27420,7 @@
     </row>
     <row r="713" spans="10:17">
       <c r="J713" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K713">
         <v>0.0003778692234779513</v>
@@ -27494,7 +27446,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K714">
         <v>0.0003778692234779513</v>
@@ -27520,7 +27472,7 @@
     </row>
     <row r="715" spans="10:17">
       <c r="J715" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K715">
         <v>0.0003778692234779513</v>
@@ -27546,7 +27498,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K716">
         <v>0.0003362147504037584</v>
@@ -27572,7 +27524,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K717">
         <v>0.0003307566868968987</v>
@@ -27598,7 +27550,7 @@
     </row>
     <row r="718" spans="10:17">
       <c r="J718" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K718">
         <v>0.0002356266484101145</v>
@@ -27624,7 +27576,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K719">
         <v>0.0002356266484101145</v>
@@ -27650,7 +27602,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K720">
         <v>0.0002356266484101145</v>
@@ -27676,7 +27628,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K721">
         <v>0.0002356266484101145</v>
@@ -27702,7 +27654,7 @@
     </row>
     <row r="722" spans="10:17">
       <c r="J722" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K722">
         <v>0.0002356266484101145</v>
@@ -27728,7 +27680,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K723">
         <v>0.0001994555685019798</v>
@@ -27754,7 +27706,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K724">
         <v>0.0001880490800373485</v>
@@ -27780,7 +27732,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K725">
         <v>0.0001880490800373485</v>
@@ -27806,7 +27758,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K726">
         <v>0.0001880490800373485</v>
@@ -27832,7 +27784,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K727">
         <v>0.0001880490800373485</v>
@@ -27858,7 +27810,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K728">
         <v>0.0001473968413397768</v>
@@ -27884,7 +27836,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K729">
         <v>0.0001410363850331679</v>
@@ -27910,7 +27862,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K730">
         <v>0.0001410363850331679</v>
@@ -27936,7 +27888,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K731">
         <v>0.0001350063913159617</v>
@@ -27962,7 +27914,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K732">
         <v>0.0001280003626035402</v>
@@ -27988,7 +27940,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K733">
         <v>0.0001042253060368339</v>
@@ -28014,7 +27966,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K734">
         <v>0.0001042253060368339</v>
@@ -28040,7 +27992,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K735">
         <v>0.0001042253060368339</v>
@@ -28066,7 +28018,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K736">
         <v>9.546393480304114E-05</v>
@@ -28092,7 +28044,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K737">
         <v>9.546393480304114E-05</v>
@@ -28118,7 +28070,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K738">
         <v>9.546393480304114E-05</v>
@@ -28144,7 +28096,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K739">
         <v>9.546393480304114E-05</v>
@@ -28170,7 +28122,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K740">
         <v>9.546393480304114E-05</v>
@@ -28196,7 +28148,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K741">
         <v>9.546393480304114E-05</v>
@@ -28222,7 +28174,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K742">
         <v>9.546393480304114E-05</v>
@@ -28248,7 +28200,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K743">
         <v>9.546393480304114E-05</v>
@@ -28274,7 +28226,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K744">
         <v>9.188724000050064E-05</v>
@@ -28300,7 +28252,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K745">
         <v>5.305112274938079E-05</v>
@@ -28326,7 +28278,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K746">
         <v>5.305112274938079E-05</v>
@@ -28352,7 +28304,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K747">
         <v>5.305112274938079E-05</v>
@@ -28378,7 +28330,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K748">
         <v>5.305112274938079E-05</v>
@@ -28404,7 +28356,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K749">
         <v>5.305112274938079E-05</v>
@@ -28430,7 +28382,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K750">
         <v>5.305112274938079E-05</v>
@@ -28456,7 +28408,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K751">
         <v>5.305112274938079E-05</v>
@@ -28482,7 +28434,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K752">
         <v>4.89273464529383E-05</v>
@@ -28508,7 +28460,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K753">
         <v>4.817939643284014E-05</v>
@@ -28534,7 +28486,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K754">
         <v>2.493376307956437E-05</v>
@@ -28560,7 +28512,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K755">
         <v>1.763083295405883E-05</v>
@@ -28586,7 +28538,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K756">
         <v>1.763083295405883E-05</v>
@@ -28612,7 +28564,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K757">
         <v>1.763083295405883E-05</v>
@@ -28638,7 +28590,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K758">
         <v>1.763083295405883E-05</v>
@@ -28664,7 +28616,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K759">
         <v>1.763083295405883E-05</v>
@@ -28690,7 +28642,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K760">
         <v>0</v>
@@ -28716,7 +28668,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K761">
         <v>0</v>
@@ -28742,7 +28694,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K762">
         <v>0</v>
@@ -28768,7 +28720,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K763">
         <v>0</v>
@@ -28794,7 +28746,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K764">
         <v>0</v>
@@ -28820,7 +28772,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K765">
         <v>0</v>
@@ -28846,7 +28798,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K766">
         <v>0</v>
@@ -28872,7 +28824,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K767">
         <v>0</v>
@@ -28898,7 +28850,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K768">
         <v>0</v>
@@ -28924,7 +28876,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K769">
         <v>0</v>
@@ -28950,7 +28902,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K770">
         <v>0</v>
